--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H2">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I2">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J2">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N2">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O2">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P2">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q2">
-        <v>216.4517684304971</v>
+        <v>318.5710219891569</v>
       </c>
       <c r="R2">
-        <v>216.4517684304971</v>
+        <v>2867.139197902412</v>
       </c>
       <c r="S2">
-        <v>0.01194114554324278</v>
+        <v>0.01337689268263197</v>
       </c>
       <c r="T2">
-        <v>0.01194114554324278</v>
+        <v>0.01493699326453784</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H3">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I3">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J3">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N3">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P3">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q3">
-        <v>964.3671815011179</v>
+        <v>1224.779404604976</v>
       </c>
       <c r="R3">
-        <v>964.3671815011179</v>
+        <v>11023.01464144478</v>
       </c>
       <c r="S3">
-        <v>0.05320191632035276</v>
+        <v>0.05142885424103728</v>
       </c>
       <c r="T3">
-        <v>0.05320191632035276</v>
+        <v>0.05742682307668229</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H4">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I4">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J4">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N4">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O4">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P4">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q4">
-        <v>1651.703927808913</v>
+        <v>2069.913652570506</v>
       </c>
       <c r="R4">
-        <v>1651.703927808913</v>
+        <v>18629.22287313456</v>
       </c>
       <c r="S4">
-        <v>0.09112070157396361</v>
+        <v>0.08691629458279118</v>
       </c>
       <c r="T4">
-        <v>0.09112070157396361</v>
+        <v>0.09705304046038722</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H5">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I5">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J5">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N5">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O5">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P5">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q5">
-        <v>3604.003489057313</v>
+        <v>4778.843726852552</v>
       </c>
       <c r="R5">
-        <v>3604.003489057313</v>
+        <v>43009.59354167298</v>
       </c>
       <c r="S5">
-        <v>0.1988245719277044</v>
+        <v>0.2006650802135777</v>
       </c>
       <c r="T5">
-        <v>0.1988245719277044</v>
+        <v>0.2240679523032859</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H6">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I6">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J6">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N6">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O6">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P6">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q6">
-        <v>588.8586890016952</v>
+        <v>1029.389024479754</v>
       </c>
       <c r="R6">
-        <v>588.8586890016952</v>
+        <v>6176.334146878524</v>
       </c>
       <c r="S6">
-        <v>0.03248597764185165</v>
+        <v>0.04322435362502482</v>
       </c>
       <c r="T6">
-        <v>0.03248597764185165</v>
+        <v>0.03217697334644706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H7">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I7">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J7">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N7">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O7">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P7">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q7">
-        <v>178.0205198763348</v>
+        <v>240.4280062410193</v>
       </c>
       <c r="R7">
-        <v>178.0205198763348</v>
+        <v>2163.852056169173</v>
       </c>
       <c r="S7">
-        <v>0.009820982073471235</v>
+        <v>0.01009564403348259</v>
       </c>
       <c r="T7">
-        <v>0.009820982073471235</v>
+        <v>0.01127306396986289</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H8">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I8">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J8">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N8">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P8">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q8">
-        <v>793.1427322000858</v>
+        <v>924.3504587942707</v>
       </c>
       <c r="R8">
-        <v>793.1427322000858</v>
+        <v>8319.154129148437</v>
       </c>
       <c r="S8">
-        <v>0.04375585780814546</v>
+        <v>0.03881375277395269</v>
       </c>
       <c r="T8">
-        <v>0.04375585780814546</v>
+        <v>0.04334046609409572</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H9">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I9">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J9">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N9">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O9">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P9">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q9">
-        <v>1358.442086393683</v>
+        <v>1562.179791090765</v>
       </c>
       <c r="R9">
-        <v>1358.442086393683</v>
+        <v>14059.61811981688</v>
       </c>
       <c r="S9">
-        <v>0.07494212120933563</v>
+        <v>0.06559639758166345</v>
       </c>
       <c r="T9">
-        <v>0.07494212120933563</v>
+        <v>0.07324667784226178</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H10">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I10">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J10">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N10">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O10">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P10">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q10">
-        <v>2964.108722281572</v>
+        <v>3606.630201988893</v>
       </c>
       <c r="R10">
-        <v>2964.108722281572</v>
+        <v>32459.67181790004</v>
       </c>
       <c r="S10">
-        <v>0.1635230514188429</v>
+        <v>0.1514434830158118</v>
       </c>
       <c r="T10">
-        <v>0.1635230514188429</v>
+        <v>0.1691058110006642</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H11">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I11">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J11">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N11">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O11">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P11">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q11">
-        <v>484.3061838205282</v>
+        <v>776.8878325991585</v>
       </c>
       <c r="R11">
-        <v>484.3061838205282</v>
+        <v>4661.326995594952</v>
       </c>
       <c r="S11">
-        <v>0.02671805673119462</v>
+        <v>0.03262175290844631</v>
       </c>
       <c r="T11">
-        <v>0.02671805673119462</v>
+        <v>0.02428420984511265</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H12">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I12">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J12">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N12">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O12">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P12">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q12">
-        <v>25.26517261925772</v>
+        <v>42.284915366386</v>
       </c>
       <c r="R12">
-        <v>25.26517261925772</v>
+        <v>380.5642382974739</v>
       </c>
       <c r="S12">
-        <v>0.001393821383901438</v>
+        <v>0.001775556268170472</v>
       </c>
       <c r="T12">
-        <v>0.001393821383901438</v>
+        <v>0.001982633235363001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H13">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I13">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J13">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N13">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P13">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q13">
-        <v>112.5650461793126</v>
+        <v>162.5687519939487</v>
       </c>
       <c r="R13">
-        <v>112.5650461793126</v>
+        <v>1463.118767945538</v>
       </c>
       <c r="S13">
-        <v>0.006209954343434376</v>
+        <v>0.006826310614800617</v>
       </c>
       <c r="T13">
-        <v>0.006209954343434376</v>
+        <v>0.007622439537644398</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H14">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I14">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J14">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N14">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O14">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P14">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q14">
-        <v>192.7939196551213</v>
+        <v>274.7460301572873</v>
       </c>
       <c r="R14">
-        <v>192.7939196551213</v>
+        <v>2472.714271415586</v>
       </c>
       <c r="S14">
-        <v>0.01063599651389909</v>
+        <v>0.011536668142146</v>
       </c>
       <c r="T14">
-        <v>0.01063599651389909</v>
+        <v>0.01288214972062836</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H15">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I15">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J15">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N15">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O15">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P15">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q15">
-        <v>420.6746423542307</v>
+        <v>634.3106829911939</v>
       </c>
       <c r="R15">
-        <v>420.6746423542307</v>
+        <v>5708.796146920746</v>
       </c>
       <c r="S15">
-        <v>0.02320765114153583</v>
+        <v>0.02663489566891301</v>
       </c>
       <c r="T15">
-        <v>0.02320765114153583</v>
+        <v>0.02974123113993194</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H16">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I16">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J16">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N16">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O16">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P16">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q16">
-        <v>68.73409505432082</v>
+        <v>136.633983553892</v>
       </c>
       <c r="R16">
-        <v>68.73409505432082</v>
+        <v>819.803901323352</v>
       </c>
       <c r="S16">
-        <v>0.003791901719159561</v>
+        <v>0.00573730191587584</v>
       </c>
       <c r="T16">
-        <v>0.003791901719159561</v>
+        <v>0.004270949021682462</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.42225596032678</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H17">
-        <v>1.42225596032678</v>
+        <v>4.756736</v>
       </c>
       <c r="I17">
-        <v>0.04391426527354595</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J17">
-        <v>0.04391426527354595</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N17">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O17">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P17">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q17">
-        <v>24.52515571539047</v>
+        <v>33.43186117794133</v>
       </c>
       <c r="R17">
-        <v>24.52515571539047</v>
+        <v>300.886750601472</v>
       </c>
       <c r="S17">
-        <v>0.00135299635568562</v>
+        <v>0.001403813869715974</v>
       </c>
       <c r="T17">
-        <v>0.00135299635568562</v>
+        <v>0.001567535810752023</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.42225596032678</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H18">
-        <v>1.42225596032678</v>
+        <v>4.756736</v>
       </c>
       <c r="I18">
-        <v>0.04391426527354595</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J18">
-        <v>0.04391426527354595</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N18">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P18">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q18">
-        <v>109.2680159863032</v>
+        <v>128.5322650273849</v>
       </c>
       <c r="R18">
-        <v>109.2680159863032</v>
+        <v>1156.790385246464</v>
       </c>
       <c r="S18">
-        <v>0.006028064781243833</v>
+        <v>0.005397108327026238</v>
       </c>
       <c r="T18">
-        <v>0.006028064781243833</v>
+        <v>0.00602655434572196</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.42225596032678</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H19">
-        <v>1.42225596032678</v>
+        <v>4.756736</v>
       </c>
       <c r="I19">
-        <v>0.04391426527354595</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J19">
-        <v>0.04391426527354595</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N19">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O19">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P19">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q19">
-        <v>187.1469857648353</v>
+        <v>217.2233539980231</v>
       </c>
       <c r="R19">
-        <v>187.1469857648353</v>
+        <v>1955.010185982208</v>
       </c>
       <c r="S19">
-        <v>0.01032446817691242</v>
+        <v>0.009121273731833121</v>
       </c>
       <c r="T19">
-        <v>0.01032446817691242</v>
+        <v>0.01018505624054917</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.42225596032678</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H20">
-        <v>1.42225596032678</v>
+        <v>4.756736</v>
       </c>
       <c r="I20">
-        <v>0.04391426527354595</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J20">
-        <v>0.04391426527354595</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N20">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O20">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P20">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q20">
-        <v>408.3530821154871</v>
+        <v>501.507133541632</v>
       </c>
       <c r="R20">
-        <v>408.3530821154871</v>
+        <v>4513.564201874688</v>
       </c>
       <c r="S20">
-        <v>0.0225278990415759</v>
+        <v>0.0210584348289818</v>
       </c>
       <c r="T20">
-        <v>0.0225278990415759</v>
+        <v>0.02351440701999569</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.42225596032678</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H21">
-        <v>1.42225596032678</v>
+        <v>4.756736</v>
       </c>
       <c r="I21">
-        <v>0.04391426527354595</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J21">
-        <v>0.04391426527354595</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N21">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O21">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P21">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q21">
-        <v>66.72087341603107</v>
+        <v>108.0273740832427</v>
       </c>
       <c r="R21">
-        <v>66.72087341603107</v>
+        <v>648.164244499456</v>
       </c>
       <c r="S21">
-        <v>0.00368083691812818</v>
+        <v>0.004536101811379631</v>
       </c>
       <c r="T21">
-        <v>0.00368083691812818</v>
+        <v>0.003376754418301583</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.6235526902882</v>
+        <v>8.08854</v>
       </c>
       <c r="H22">
-        <v>6.6235526902882</v>
+        <v>16.17708</v>
       </c>
       <c r="I22">
-        <v>0.2045120273764186</v>
+        <v>0.2117900291627375</v>
       </c>
       <c r="J22">
-        <v>0.2045120273764186</v>
+        <v>0.1519182783060917</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N22">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O22">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P22">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q22">
-        <v>114.2154897920683</v>
+        <v>170.54653426986</v>
       </c>
       <c r="R22">
-        <v>114.2154897920683</v>
+        <v>1023.27920561916</v>
       </c>
       <c r="S22">
-        <v>0.006301005516329547</v>
+        <v>0.007161300083346509</v>
       </c>
       <c r="T22">
-        <v>0.006301005516329547</v>
+        <v>0.005330998443764869</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.6235526902882</v>
+        <v>8.08854</v>
       </c>
       <c r="H23">
-        <v>6.6235526902882</v>
+        <v>16.17708</v>
       </c>
       <c r="I23">
-        <v>0.2045120273764186</v>
+        <v>0.2117900291627375</v>
       </c>
       <c r="J23">
-        <v>0.2045120273764186</v>
+        <v>0.1519182783060917</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N23">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O23">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P23">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q23">
-        <v>508.8693466134211</v>
+        <v>655.68387669482</v>
       </c>
       <c r="R23">
-        <v>508.8693466134211</v>
+        <v>3934.10326016892</v>
       </c>
       <c r="S23">
-        <v>0.02807314984981001</v>
+        <v>0.02753236247764316</v>
       </c>
       <c r="T23">
-        <v>0.02807314984981001</v>
+        <v>0.02049557759251129</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.6235526902882</v>
+        <v>8.08854</v>
       </c>
       <c r="H24">
-        <v>6.6235526902882</v>
+        <v>16.17708</v>
       </c>
       <c r="I24">
-        <v>0.2045120273764186</v>
+        <v>0.2117900291627375</v>
       </c>
       <c r="J24">
-        <v>0.2045120273764186</v>
+        <v>0.1519182783060917</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N24">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O24">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P24">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q24">
-        <v>871.5575505531328</v>
+        <v>1108.12526977354</v>
       </c>
       <c r="R24">
-        <v>871.5575505531328</v>
+        <v>6648.751618641239</v>
       </c>
       <c r="S24">
-        <v>0.04808182273552996</v>
+        <v>0.0465305121605749</v>
       </c>
       <c r="T24">
-        <v>0.04808182273552996</v>
+        <v>0.03463813623624752</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.6235526902882</v>
+        <v>8.08854</v>
       </c>
       <c r="H25">
-        <v>6.6235526902882</v>
+        <v>16.17708</v>
       </c>
       <c r="I25">
-        <v>0.2045120273764186</v>
+        <v>0.2117900291627375</v>
       </c>
       <c r="J25">
-        <v>0.2045120273764186</v>
+        <v>0.1519182783060917</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N25">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O25">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P25">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q25">
-        <v>1901.730933869361</v>
+        <v>2558.34705348594</v>
       </c>
       <c r="R25">
-        <v>1901.730933869361</v>
+        <v>15350.08232091564</v>
       </c>
       <c r="S25">
-        <v>0.1049141156484148</v>
+        <v>0.1074257594608651</v>
       </c>
       <c r="T25">
-        <v>0.1049141156484148</v>
+        <v>0.07996963537918265</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.6235526902882</v>
+        <v>8.08854</v>
       </c>
       <c r="H26">
-        <v>6.6235526902882</v>
+        <v>16.17708</v>
       </c>
       <c r="I26">
-        <v>0.2045120273764186</v>
+        <v>0.2117900291627375</v>
       </c>
       <c r="J26">
-        <v>0.2045120273764186</v>
+        <v>0.1519182783060917</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N26">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O26">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P26">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q26">
-        <v>310.7241122136641</v>
+        <v>551.08192027092</v>
       </c>
       <c r="R26">
-        <v>310.7241122136641</v>
+        <v>2204.32768108368</v>
       </c>
       <c r="S26">
-        <v>0.01714193362633432</v>
+        <v>0.02314009498030788</v>
       </c>
       <c r="T26">
-        <v>0.01714193362633432</v>
+        <v>0.01148393065438531</v>
       </c>
     </row>
   </sheetData>
